--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/result1_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/result1_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\Angle\result1_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94510FE-7B3C-4B90-89FE-DF69B043AD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD637054-9F5C-499D-8B3C-5E595690F286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{F41D17CC-DB6E-4A50-9FAF-84425FD4B80D}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{36349C39-068D-463D-8427-27E9D043D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8D367D-4E4B-47A5-950D-5DF5980CC092}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED8F55D-9BC1-4121-96C1-EE2187C5100F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>130.37879317998804</v>
+        <v>4.4842649726493518</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/result1_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/result1_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\Angle\result1_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD637054-9F5C-499D-8B3C-5E595690F286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03B35A7-6362-458F-9B32-460B1A920A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{36349C39-068D-463D-8427-27E9D043D3A3}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{1D0B6F06-46AF-46DC-B723-0BA7EF0B3D9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED8F55D-9BC1-4121-96C1-EE2187C5100F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D445673-5D6F-4B8D-BF9C-583D793F3B64}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
